--- a/questions.xlsx
+++ b/questions.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://butleru-my.sharepoint.com/personal/mlanham1_butler_edu/Documents/Desktop/New folder/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://butleru-my.sharepoint.com/personal/mlanham1_butler_edu/Documents/Jeopardy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="111" documentId="8_{BE737DA6-0430-43F1-A391-4A57941C90ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{168BA225-F476-4103-B6E1-60B9E9A9BBAC}"/>
+  <xr:revisionPtr revIDLastSave="413" documentId="8_{BE737DA6-0430-43F1-A391-4A57941C90ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{737D3F30-85F1-4E25-A425-E5ACFECD1671}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="850" windowWidth="18660" windowHeight="20750" xr2:uid="{80F37F13-7280-4BA1-A434-DBF058FB7F18}"/>
+    <workbookView xWindow="-38130" yWindow="210" windowWidth="18870" windowHeight="19470" xr2:uid="{80F37F13-7280-4BA1-A434-DBF058FB7F18}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Python Review" sheetId="4" r:id="rId1"/>
+    <sheet name="10_12 Review " sheetId="1" r:id="rId2"/>
+    <sheet name="12_10 Review" sheetId="2" r:id="rId3"/>
+    <sheet name="AI900 Review" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,199 +39,694 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="220">
   <si>
     <t>Category</t>
   </si>
   <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Answers (optional)</t>
+  </si>
+  <si>
+    <t>Linear Regression</t>
+  </si>
+  <si>
+    <t>Regression Diagnostics</t>
+  </si>
+  <si>
+    <t>Cross-validation</t>
+  </si>
+  <si>
+    <t>Random</t>
+  </si>
+  <si>
+    <t>pythonexam200.png</t>
+  </si>
+  <si>
+    <t>pythonexam800.png</t>
+  </si>
+  <si>
+    <t>pythonexam400.png</t>
+  </si>
+  <si>
+    <t>pythonexam1000.png</t>
+  </si>
+  <si>
+    <t>pythonexam600.png</t>
+  </si>
+  <si>
+    <t>Use .loc to subset your d dataframe for only prices equal to 25 and return only the 'price' column.</t>
+  </si>
+  <si>
+    <t>d.loc[d['price'] == 25, 'price']</t>
+  </si>
+  <si>
+    <t>Use .loc to subset your d dataframe to capture the first row of your dataset.</t>
+  </si>
+  <si>
+    <t>d.loc[0,:]</t>
+  </si>
+  <si>
+    <t>Change the first element in your myList to the last value in your myList</t>
+  </si>
+  <si>
+    <t>myList[0] = myList[-1]</t>
+  </si>
+  <si>
+    <t>python1000.png</t>
+  </si>
+  <si>
+    <t>python200.png</t>
+  </si>
+  <si>
+    <t>data frame</t>
+  </si>
+  <si>
+    <t>The objective of linear regression is to minimize what?</t>
+  </si>
+  <si>
+    <t>The sum of squared errors</t>
+  </si>
+  <si>
+    <t>The fitting procedure for linear regression is called?</t>
+  </si>
+  <si>
+    <t>Ordinary Least Squares (OLS)</t>
+  </si>
+  <si>
+    <t>lr600.png</t>
+  </si>
+  <si>
+    <t>lr1000.png</t>
+  </si>
+  <si>
+    <t>lr800.png</t>
+  </si>
+  <si>
+    <t>rd1000.png</t>
+  </si>
+  <si>
+    <t>heteroskasticity</t>
+  </si>
+  <si>
+    <t>rd200.png</t>
+  </si>
+  <si>
+    <t>Cooks distance</t>
+  </si>
+  <si>
+    <t>rd400.png</t>
+  </si>
+  <si>
+    <t>non-normal errors</t>
+  </si>
+  <si>
+    <t>How could you potentially improve the beta coefficient estimates if there exist outliers?</t>
+  </si>
+  <si>
+    <t>remove them</t>
+  </si>
+  <si>
+    <t>Box-cox transformation</t>
+  </si>
+  <si>
+    <t>What transformation could you try to help make your residual errors more normally distributed?</t>
+  </si>
+  <si>
+    <t>This type of error can be reduced if you include important features or obtain better measurements.</t>
+  </si>
+  <si>
+    <t>Irreduceable error</t>
+  </si>
+  <si>
+    <t>random200.png</t>
+  </si>
+  <si>
+    <t>Support Vector Machines</t>
+  </si>
+  <si>
+    <t>What was the issue with the model used to win the $1M Netflix prize?</t>
+  </si>
+  <si>
+    <t>It was too complex and did not scale</t>
+  </si>
+  <si>
+    <t>The Validation Set Approach</t>
+  </si>
+  <si>
+    <t>cv600.png</t>
+  </si>
+  <si>
+    <t>The Bathtub</t>
+  </si>
+  <si>
+    <t>What is the error that is introduced by approximating a complex problem with a simpler model?</t>
+  </si>
+  <si>
+    <t>Bias</t>
+  </si>
+  <si>
+    <t>Among Bias and Variance, what is the the amount by which 𝑓() would change if we estimated it using a different training set?</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>random800.png</t>
+  </si>
+  <si>
+    <t>Cubic</t>
+  </si>
+  <si>
+    <t>Explain the two steps you need to do to identify the "best" predictive model among a set of models.</t>
+  </si>
+  <si>
+    <t>1) identify candidate models 2) pick best test set model among candidates</t>
+  </si>
+  <si>
+    <t>Which cross-validation design is the gold standard in most predictive modeling projects?</t>
+  </si>
+  <si>
+    <t>k-fold</t>
+  </si>
+  <si>
+    <t>What is the name of the cross-validation design approach that uses one train set and one test set?</t>
+  </si>
+  <si>
+    <t>General Concepts</t>
+  </si>
+  <si>
+    <t>input variables/features.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binary classification </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reducible error </t>
+  </si>
+  <si>
+    <t>overfitting</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> trying to obtain more accurate measurements or using new variables.</t>
+  </si>
+  <si>
+    <t>Data Pre-Processing</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> change the distribution of the variable.</t>
+  </si>
+  <si>
+    <t>data leakage</t>
+  </si>
+  <si>
+    <t>One-hot encoding or dummy variable encoding takes a categorical variable and replaces it with a new column of 0s and 1s for each unique factor level of the original variable.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The z-score standardization </t>
+  </si>
+  <si>
+    <t>Min-max normalization</t>
+  </si>
+  <si>
+    <t>Text Mining</t>
+  </si>
+  <si>
+    <t>Tokenization</t>
+  </si>
+  <si>
+    <t>1) Lower casing, 2) Stemming, and 3) Lemmatization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bag-of-Words (BoW) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A collaborative platform where researchers and practitioners build, share, and deploy modern AI tools—including state-of-the-art embedding  models </t>
+  </si>
+  <si>
+    <t>Hugging Face</t>
+  </si>
+  <si>
+    <t>Identifies and labels meaningful real-world entities—such as people, organizations, locations, and dates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Named Entity Recognition </t>
+  </si>
+  <si>
+    <t>Statistical Metrics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overall accuracy </t>
+  </si>
+  <si>
+    <t>AUC/ROC</t>
+  </si>
+  <si>
+    <t>Matthews correlation coefficient (MCC)</t>
+  </si>
+  <si>
+    <t>Lift</t>
+  </si>
+  <si>
+    <t>Sensitivity</t>
+  </si>
+  <si>
+    <t>Decision Trees</t>
+  </si>
+  <si>
+    <t>variance</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> prediction values</t>
+  </si>
+  <si>
+    <t>poorly calibrated</t>
+  </si>
+  <si>
+    <t>Recursive binary splitting</t>
+  </si>
+  <si>
+    <t>Cost-complexity pruning</t>
+  </si>
+  <si>
+    <t>Clustering</t>
+  </si>
+  <si>
+    <t>cohesion and separation</t>
+  </si>
+  <si>
+    <t>standardized</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> convergence </t>
+  </si>
+  <si>
+    <t>The primary issue with using the Elbow plot to identify the number of clusters is?</t>
+  </si>
+  <si>
+    <t>It is only looking at cluster cohesion and not separation</t>
+  </si>
+  <si>
+    <t>Negative silhouette</t>
+  </si>
+  <si>
+    <t>Supervised learning methods are those used to predict a target variable based on ______</t>
+  </si>
+  <si>
+    <t>____________ is when you are trying to learn a response/target variable that is one of two possible outcomes (e.g., 1/0, Yes/No, churn/no-churn)</t>
+  </si>
+  <si>
+    <t>___________ is the error inaccuracy from estimating f() that can potentially be improved by using a different estimation technique</t>
+  </si>
+  <si>
+    <t>More flexible machine learning prediction methods like neural networks, support vector machines, and ensemble methods are popular but can lead to _________</t>
+  </si>
+  <si>
+    <t>A modeler can try to reduce irreducible error by _______________</t>
+  </si>
+  <si>
+    <t>A good clustering has both ______ and ______</t>
+  </si>
+  <si>
+    <t>Numerical features must be __________ so no single variable disproportionately influences distance calculations</t>
+  </si>
+  <si>
+    <t>In k-means,_________occurs when centroids stop moving or when improvement in the objective function falls below a threshold</t>
+  </si>
+  <si>
+    <t>___________ values signal points that may belong in another cluster</t>
+  </si>
+  <si>
+    <t>Single trees often have high ________, meaning small changes in training data can lead to very different tree structures</t>
+  </si>
+  <si>
+    <t>Trees produce only a small number of unique_______________ because predictions are defined by terminal nodes</t>
+  </si>
+  <si>
+    <t>Probability estimates from classification trees may be __________ due to these coarse prediction buckets</t>
+  </si>
+  <si>
+    <t>__________ is a greedy, top-down procedure that chooses the best split at each step without reconsidering previous ones</t>
+  </si>
+  <si>
+    <t>___________ pruning balances tree size and predictive accuracy by penalizing overly large trees</t>
+  </si>
+  <si>
+    <t>The primary issue with using the mean for variable imputation is that it can______________</t>
+  </si>
+  <si>
+    <t>If information about your target variable is used as an input to your model, that is known as _________</t>
+  </si>
+  <si>
+    <t>Explain how one-hot encoding works</t>
+  </si>
+  <si>
+    <t>What standardization approach ensures each variable has a mean of 0 and standard deviation of 1</t>
+  </si>
+  <si>
+    <t>A standardization approach that ensures every numeric feature ranges between 0 and 1</t>
+  </si>
+  <si>
+    <t>The process of splitting text into tokens</t>
+  </si>
+  <si>
+    <t>Name at least one of the three common normalization approaches</t>
+  </si>
+  <si>
+    <t>Converts text into a numerical representation based on word frequency, then treats text as an unordered collection of words</t>
+  </si>
+  <si>
+    <t>Summarizes the proportion of all predictions that are correct and is most useful when class balance is not severely skewed</t>
+  </si>
+  <si>
+    <t>Summarizes classification performance across all possible cutoffs by quantifying how well the model separates positives from negatives</t>
+  </si>
+  <si>
+    <t>Gives a balanced correlation-based summary of classification quality, even for imbalanced classes</t>
+  </si>
+  <si>
+    <t>Quantifies how much more effectively a model identifies positive cases compared to random selection, guiding targeted decision-making</t>
+  </si>
+  <si>
+    <t>Measures the share of actual positives correctly identified, reflecting the model’s ability to detect the positive class</t>
+  </si>
+  <si>
     <t>Python</t>
   </si>
   <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Answers (optional)</t>
-  </si>
-  <si>
     <t>Python Exam Qs</t>
   </si>
   <si>
-    <t>Linear Regression</t>
-  </si>
-  <si>
-    <t>Regression Diagnostics</t>
-  </si>
-  <si>
-    <t>Cross-validation</t>
-  </si>
-  <si>
-    <t>Random</t>
-  </si>
-  <si>
-    <t>pythonexam200.png</t>
-  </si>
-  <si>
-    <t>pythonexam800.png</t>
-  </si>
-  <si>
-    <t>pythonexam400.png</t>
-  </si>
-  <si>
-    <t>pythonexam1000.png</t>
-  </si>
-  <si>
-    <t>pythonexam600.png</t>
-  </si>
-  <si>
-    <t>Use .loc to subset your d dataframe for only prices equal to 25 and return only the 'price' column.</t>
-  </si>
-  <si>
-    <t>d.loc[d['price'] == 25, 'price']</t>
-  </si>
-  <si>
-    <t>Use .loc to subset your d dataframe to capture the first row of your dataset.</t>
-  </si>
-  <si>
-    <t>d.loc[0,:]</t>
-  </si>
-  <si>
-    <t>Change the first element in your myList to the last value in your myList</t>
-  </si>
-  <si>
-    <t>myList[0] = myList[-1]</t>
-  </si>
-  <si>
-    <t>python1000.png</t>
-  </si>
-  <si>
-    <t>python200.png</t>
-  </si>
-  <si>
-    <t>data frame</t>
-  </si>
-  <si>
-    <t>The objective of linear regression is to minimize what?</t>
-  </si>
-  <si>
-    <t>The sum of squared errors</t>
-  </si>
-  <si>
-    <t>The fitting procedure for linear regression is called?</t>
-  </si>
-  <si>
-    <t>Ordinary Least Squares (OLS)</t>
-  </si>
-  <si>
-    <t>lr600.png</t>
-  </si>
-  <si>
-    <t>lr1000.png</t>
-  </si>
-  <si>
-    <t>lr800.png</t>
-  </si>
-  <si>
-    <t>rd1000.png</t>
-  </si>
-  <si>
-    <t>heteroskasticity</t>
-  </si>
-  <si>
-    <t>rd200.png</t>
-  </si>
-  <si>
-    <t>Cooks distance</t>
-  </si>
-  <si>
-    <t>rd400.png</t>
-  </si>
-  <si>
-    <t>non-normal errors</t>
-  </si>
-  <si>
-    <t>How could you potentially improve the beta coefficient estimates if there exist outliers?</t>
-  </si>
-  <si>
-    <t>remove them</t>
-  </si>
-  <si>
-    <t>Box-cox transformation</t>
-  </si>
-  <si>
-    <t>What transformation could you try to help make your residual errors more normally distributed?</t>
-  </si>
-  <si>
-    <t>This type of error can be reduced if you include important features or obtain better measurements.</t>
-  </si>
-  <si>
-    <t>Irreduceable error</t>
-  </si>
-  <si>
-    <t>random200.png</t>
-  </si>
-  <si>
-    <t>Support Vector Machines</t>
-  </si>
-  <si>
-    <t>What was the issue with the model used to win the $1M Netflix prize?</t>
-  </si>
-  <si>
-    <t>It was too complex and did not scale</t>
-  </si>
-  <si>
-    <t>The Validation Set Approach</t>
-  </si>
-  <si>
-    <t>cv600.png</t>
-  </si>
-  <si>
-    <t>The Bathtub</t>
-  </si>
-  <si>
-    <t>What is the error that is introduced by approximating a complex problem with a simpler model?</t>
-  </si>
-  <si>
-    <t>Bias</t>
-  </si>
-  <si>
-    <t>Among Bias and Variance, what is the the amount by which 𝑓() would change if we estimated it using a different training set?</t>
-  </si>
-  <si>
-    <t>Variance</t>
-  </si>
-  <si>
-    <t>random800.png</t>
-  </si>
-  <si>
-    <t>Cubic</t>
-  </si>
-  <si>
-    <t>Explain the two steps you need to do to identify the "best" predictive model among a set of models.</t>
-  </si>
-  <si>
-    <t>1) identify candidate models 2) pick best test set model among candidates</t>
-  </si>
-  <si>
-    <t>Which cross-validation design is the gold standard in most predictive modeling projects?</t>
-  </si>
-  <si>
-    <t>k-fold</t>
-  </si>
-  <si>
-    <t>What is the name of the cross-validation design approach that uses one train set and one test set?</t>
+    <t>Daily Double</t>
+  </si>
+  <si>
+    <t>Machine Learning Principles</t>
+  </si>
+  <si>
+    <t>Computer Vision Workloads</t>
+  </si>
+  <si>
+    <t>NLP Workoads</t>
+  </si>
+  <si>
+    <t>GenAI Workloads</t>
+  </si>
+  <si>
+    <t>AI Workload Considerations</t>
+  </si>
+  <si>
+    <t>What is responsible AI? Name two principles.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Responsible AI is building AI systems that are trustworthy and governed; examples of principles include fairness and transparency. </t>
+  </si>
+  <si>
+    <t>Which responsible AI principle is most directly at risk if a model produces systematically worse outcomes for one demographic group due to biased training data?</t>
+  </si>
+  <si>
+    <t>Fairness</t>
+  </si>
+  <si>
+    <t>A bank uses an AI model for loan approval but does not tell applicants AI is involved or what general factors influence decisions. Which principle is most directly violated?</t>
+  </si>
+  <si>
+    <r>
+      <t>Transparency</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (and potentially accountability if governance is unclear).</t>
+    </r>
+  </si>
+  <si>
+    <t>Give one concrete mitigation for privacy and security risk when training models on data that may include personal information.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secure and restrict access to training data and ensure the deployed model cannot be exploited to reveal private details (for example, apply strict governance and data protections). </t>
+  </si>
+  <si>
+    <t>An airport facial identification solution keeps travelers’ face images indefinitely “for future convenience,” and operators can browse them. Identify two responsible-AI issues and one fix.</t>
+  </si>
+  <si>
+    <t>Issues: privacy/security (unnecessary retention and access) and accountability/governance (inappropriate access controls). Fix: delete images when no longer required and enforce strict access safeguards.</t>
+  </si>
+  <si>
+    <t>In ML notation, what do x, y, and ŷ (“y-hat”) typically represent?</t>
+  </si>
+  <si>
+    <t>x = features (inputs), y = true label (observed outcome), ŷ = predicted label produced by the trained model.</t>
+  </si>
+  <si>
+    <t>Predicting tomorrow’s ice cream sales as a number (e.g., 413) is what ML problem type?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regression (supervised learning with a numeric label). </t>
+  </si>
+  <si>
+    <t>Define a confusion matrix for binary classification and name the four cells.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A confusion matrix tallies predictions vs. actuals: TN, FP, FN, TP. </t>
+  </si>
+  <si>
+    <t>Why can accuracy be misleading in imbalanced classification problems, and what metric helps when missing positives is costly?</t>
+  </si>
+  <si>
+    <t>Accuracy can look high by always predicting the majority class; recall helps when false negatives are costly because it measures how many true positives were captured</t>
+  </si>
+  <si>
+    <t>You built a churn model. The business only needs updated churn flags once per week for all customers. Should you deploy for real-time or batch predictions, and why?</t>
+  </si>
+  <si>
+    <t>Batch, because predictions are consumed at scheduled times; real-time is for immediate scoring when new data arrives and instant decisions are required.</t>
+  </si>
+  <si>
+    <t>What is OCR used for in computer vision solutions?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detecting and extracting text from images (locating text and reading it). </t>
+  </si>
+  <si>
+    <t>Distinguish image classification from object detection.</t>
+  </si>
+  <si>
+    <t>Image classification predicts a single label for the image’s main subject; object detection finds multiple objects and returns their locations (bounding boxes).</t>
+  </si>
+  <si>
+    <t>When would you prefer semantic segmentation over object detection?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When you need pixel-level labeling for precise object boundaries rather than rectangular boxes. </t>
+  </si>
+  <si>
+    <t>Which capability set is appropriate if you need: captions, tags, object hints, and OCR—without training a custom model?</t>
+  </si>
+  <si>
+    <t>The built-in image analysis capabilities (captioning, tagging, OCR) of the vision service.</t>
+  </si>
+  <si>
+    <t>A grocery store wants a “smart checkout” that identifies multiple produce items on the scale in one camera image and charges accordingly. What technique is most appropriate, and what training approach is suggested if built-ins don’t fit?</t>
+  </si>
+  <si>
+    <t>Object detection; if built-ins don’t meet needs, train a custom object detection model using your own labeled images (often feasible with relatively few images via a pre-trained foundation model).</t>
+  </si>
+  <si>
+    <t>Name three core NLP tasks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Examples include language detection, sentiment analysis, and named entity recognition (others include translation, summarization, classification). </t>
+  </si>
+  <si>
+    <t>What is the difference between entity recognition and entity linking?</t>
+  </si>
+  <si>
+    <t>Entity recognition identifies entities (people/places/events/etc.) in text; entity linking disambiguates recognized entities by linking them to a reference such as Wikipedia.</t>
+  </si>
+  <si>
+    <t>In language detection, what does the system return, and how does it handle mixed-language text?</t>
+  </si>
+  <si>
+    <t>It returns language name, an ISO language code, and a confidence score; it focuses on the predominant language in the text.</t>
+  </si>
+  <si>
+    <t>You need a bot that answers FAQs from a curated internal knowledge base of Q/A pairs. Which capability fits best: question answering or conversational language understanding (CLU)?</t>
+  </si>
+  <si>
+    <t>Question answering, because it’s designed for bots that respond to user queries using a knowledge base of question–answer pairs.</t>
+  </si>
+  <si>
+    <t>You have 10,000 restaurant reviews and want a quick summary of what customers talk about most (e.g., “service,” “ambiance,” “price”). Which feature should you use, and what kind of output should you expect?</t>
+  </si>
+  <si>
+    <t>Key phrase extraction; you should expect a list of salient phrases representing the main concepts in the text corpus (or per document).</t>
+  </si>
+  <si>
+    <t>In an LLM workflow, what is a prompt, and what does the model produce?</t>
+  </si>
+  <si>
+    <t>A prompt is the input that starts a sequence of predictions; the model generates a completion (a continuation that is linguistically and semantically coherent).</t>
+  </si>
+  <si>
+    <t>What is a foundation model, and what does it mean to “deploy to an endpoint without extra training”?</t>
+  </si>
+  <si>
+    <t>A foundation model is pretrained on large text corpora and can be adapted; deploying to an endpoint without extra training means you can serve the pretrained model directly for inference (with optional later customization).</t>
+  </si>
+  <si>
+    <t>Name two platform features that help you choose or compare candidate models before committing.</t>
+  </si>
+  <si>
+    <t>A playground for testing and leaderboards/comparisons (e.g., quality, cost, throughput).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A hub provides broader access across AI/ML resources; within a hub you create projects that provide more specific access to models and agent development—this matters for scoping resources and managing builds. </t>
+  </si>
+  <si>
+    <t>In the platform’s structure, what is the relationship between a hub and a project, and why does it matter for agent development?</t>
+  </si>
+  <si>
+    <t>You are monitoring a generative system that sometimes “makes up” facts not supported by provided reference documents. Which evaluator is most directly relevant, and what does it measure?</t>
+  </si>
+  <si>
+    <t>Groundedness—it measures how consistent the response is with respect to the retrieved/provided context.</t>
+  </si>
+  <si>
+    <t>You’re building a generative app and need automated screening to reduce harmful/inappropriate outputs and support safety evaluation—what service should you test in Foundry</t>
+  </si>
+  <si>
+    <t>Random AI-900 Services</t>
+  </si>
+  <si>
+    <t>You need a managed cloud service to train, deploy, and manage ML models end-to-end—what service fits best?</t>
+  </si>
+  <si>
+    <t>Microsoft Foundry Content Safety</t>
+  </si>
+  <si>
+    <t>Azure Machine Learning</t>
+  </si>
+  <si>
+    <t>You must generate captions/tags for photos and extract text from small scanned documents (menus/business cards)—what service?</t>
+  </si>
+  <si>
+    <t>Azure Vision Image Analysis</t>
+  </si>
+  <si>
+    <t>You want language detection, entity recognition/linking, sentiment, and Q&amp;A bot creation from a knowledge base—what service?</t>
+  </si>
+  <si>
+    <t>Azure Language</t>
+  </si>
+  <si>
+    <t>You need a foundation model for text generation that you can deploy to an endpoint directly (optionally customize later) via Foundry’s model catalog—what service/model family?</t>
+  </si>
+  <si>
+    <t>Azure OpenAI (in Foundry)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Python Concepts</t>
+  </si>
+  <si>
+    <t>Python code can be authored in a couple ways. The traditional way in which python files (____) are ran, or the notebook way, which provides the end-user a way to document their code using markup language, note taking, and story-telling in a (____) file.</t>
+  </si>
+  <si>
+    <t>The built-in AI assistant for Google Colab is called _____.</t>
+  </si>
+  <si>
+    <t>MyFamily = {"President": "Danko", "Provost":"Barnett", "Dean":"Caldwell"} is an example of a _______?</t>
+  </si>
+  <si>
+    <t>python_concepts_1000.png</t>
+  </si>
+  <si>
+    <t>DataFrames</t>
+  </si>
+  <si>
+    <t>DataFrames_200.png</t>
+  </si>
+  <si>
+    <t>DataFrames_400.png</t>
+  </si>
+  <si>
+    <t>DataFrames_600.png</t>
+  </si>
+  <si>
+    <t>DataFrames_800.png</t>
+  </si>
+  <si>
+    <t>Use .iloc to subset your df dataframe to return the 1st thru 4th observations for the 1st and 3rd columns.</t>
+  </si>
+  <si>
+    <t>Logic</t>
+  </si>
+  <si>
+    <t>Logic_200.png</t>
+  </si>
+  <si>
+    <t>Logic_400.png</t>
+  </si>
+  <si>
+    <t>Logic_600.png</t>
+  </si>
+  <si>
+    <t>Logic_800.png</t>
+  </si>
+  <si>
+    <t>DataFrames_1000.png</t>
+  </si>
+  <si>
+    <t>Lists</t>
+  </si>
+  <si>
+    <t>Subsetting</t>
+  </si>
+  <si>
+    <t>Lists_200.png</t>
+  </si>
+  <si>
+    <t>Lists_400.png</t>
+  </si>
+  <si>
+    <t>Lists_600.png</t>
+  </si>
+  <si>
+    <t>Lists_800.png</t>
+  </si>
+  <si>
+    <t>Lists_1000.png</t>
+  </si>
+  <si>
+    <t>What does this equate to:                (2 ** 0) / 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -593,428 +1091,1809 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D1239D4-6453-489A-97D1-9FF24C5379C2}">
-  <dimension ref="A1:D31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{620AE2E7-B047-4524-B62F-EC9982AC297C}">
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" customWidth="1"/>
+    <col min="4" max="4" width="33.88671875" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>213</v>
       </c>
       <c r="B2">
         <v>200</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>213</v>
       </c>
       <c r="B3">
         <v>400</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>213</v>
       </c>
       <c r="B4">
         <v>600</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>213</v>
       </c>
       <c r="B5">
         <v>800</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>213</v>
       </c>
       <c r="B6">
         <v>1000</v>
       </c>
       <c r="C6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>200</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>400</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>600</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>800</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>1000</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>195</v>
+      </c>
+      <c r="B12">
+        <v>200</v>
+      </c>
+      <c r="C12" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>195</v>
+      </c>
+      <c r="B13">
+        <v>400</v>
+      </c>
+      <c r="C13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>195</v>
+      </c>
+      <c r="B14">
+        <v>600</v>
+      </c>
+      <c r="C14" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>195</v>
+      </c>
+      <c r="B15">
+        <v>800</v>
+      </c>
+      <c r="C15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>195</v>
+      </c>
+      <c r="B16">
+        <v>1000</v>
+      </c>
+      <c r="C16" t="s">
+        <v>199</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>200</v>
+      </c>
+      <c r="B17">
+        <v>200</v>
+      </c>
+      <c r="C17" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>200</v>
+      </c>
+      <c r="B18">
+        <v>400</v>
+      </c>
+      <c r="C18" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>200</v>
+      </c>
+      <c r="B19">
+        <v>600</v>
+      </c>
+      <c r="C19" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>200</v>
+      </c>
+      <c r="B20">
+        <v>800</v>
+      </c>
+      <c r="C20" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>200</v>
+      </c>
+      <c r="B21">
+        <v>1000</v>
+      </c>
+      <c r="C21" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>206</v>
+      </c>
+      <c r="B22">
+        <v>200</v>
+      </c>
+      <c r="C22" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>206</v>
+      </c>
+      <c r="B23">
+        <v>400</v>
+      </c>
+      <c r="C23" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>206</v>
+      </c>
+      <c r="B24">
+        <v>600</v>
+      </c>
+      <c r="C24" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>206</v>
+      </c>
+      <c r="B25">
+        <v>800</v>
+      </c>
+      <c r="C25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>206</v>
+      </c>
+      <c r="B26">
+        <v>1000</v>
+      </c>
+      <c r="C26" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>212</v>
+      </c>
+      <c r="B27">
+        <v>200</v>
+      </c>
+      <c r="C27" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>212</v>
+      </c>
+      <c r="B28">
+        <v>400</v>
+      </c>
+      <c r="C28" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>212</v>
+      </c>
+      <c r="B29">
+        <v>600</v>
+      </c>
+      <c r="C29" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>212</v>
+      </c>
+      <c r="B30">
+        <v>800</v>
+      </c>
+      <c r="C30" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>212</v>
+      </c>
+      <c r="B31">
+        <v>1000</v>
+      </c>
+      <c r="C31" t="s">
+        <v>218</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D1239D4-6453-489A-97D1-9FF24C5379C2}">
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2">
+        <v>200</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3">
+        <v>400</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4">
+        <v>600</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5">
+        <v>800</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6">
+        <v>1000</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>126</v>
       </c>
       <c r="B7">
         <v>200</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>126</v>
       </c>
       <c r="B8">
         <v>400</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>126</v>
       </c>
       <c r="B9">
         <v>600</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>126</v>
       </c>
       <c r="B10">
         <v>800</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>126</v>
       </c>
       <c r="B11">
         <v>1000</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B12">
         <v>200</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B13">
         <v>400</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B14">
         <v>600</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B15">
         <v>800</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B16">
         <v>1000</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B17">
         <v>200</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B18">
         <v>400</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B19">
         <v>600</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B20">
         <v>800</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B21">
         <v>1000</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B22">
         <v>200</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B23">
         <v>400</v>
       </c>
       <c r="C23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B24">
         <v>600</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B25">
         <v>800</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B26">
         <v>1000</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B27">
         <v>200</v>
       </c>
       <c r="C27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B28">
         <v>400</v>
       </c>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B29">
         <v>600</v>
       </c>
       <c r="C29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B30">
         <v>800</v>
       </c>
       <c r="C30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D30" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B31">
         <v>1000</v>
       </c>
       <c r="C31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D31" t="s">
-        <v>57</v>
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51CB8829-DCF3-4814-BCD8-B660B8738110}">
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2">
+        <v>200</v>
+      </c>
+      <c r="C2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3">
+        <v>400</v>
+      </c>
+      <c r="C3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4">
+        <v>600</v>
+      </c>
+      <c r="C4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5">
+        <v>800</v>
+      </c>
+      <c r="C5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6">
+        <v>1000</v>
+      </c>
+      <c r="C6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7">
+        <v>200</v>
+      </c>
+      <c r="C7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8">
+        <v>400</v>
+      </c>
+      <c r="C8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9">
+        <v>600</v>
+      </c>
+      <c r="C9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10">
+        <v>800</v>
+      </c>
+      <c r="C10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11">
+        <v>1000</v>
+      </c>
+      <c r="C11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12">
+        <v>200</v>
+      </c>
+      <c r="C12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13">
+        <v>400</v>
+      </c>
+      <c r="C13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14">
+        <v>600</v>
+      </c>
+      <c r="C14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15">
+        <v>800</v>
+      </c>
+      <c r="C15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16">
+        <v>1000</v>
+      </c>
+      <c r="C16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17">
+        <v>200</v>
+      </c>
+      <c r="C17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18">
+        <v>400</v>
+      </c>
+      <c r="C18" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19">
+        <v>600</v>
+      </c>
+      <c r="C19" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20">
+        <v>800</v>
+      </c>
+      <c r="C20" t="s">
+        <v>115</v>
+      </c>
+      <c r="D20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21">
+        <v>1000</v>
+      </c>
+      <c r="C21" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22">
+        <v>200</v>
+      </c>
+      <c r="C22" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23">
+        <v>400</v>
+      </c>
+      <c r="C23" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24">
+        <v>600</v>
+      </c>
+      <c r="C24" t="s">
+        <v>119</v>
+      </c>
+      <c r="D24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25">
+        <v>800</v>
+      </c>
+      <c r="C25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26">
+        <v>1000</v>
+      </c>
+      <c r="C26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27">
+        <v>200</v>
+      </c>
+      <c r="C27" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28">
+        <v>400</v>
+      </c>
+      <c r="C28" t="s">
+        <v>121</v>
+      </c>
+      <c r="D28" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29">
+        <v>600</v>
+      </c>
+      <c r="C29" t="s">
+        <v>122</v>
+      </c>
+      <c r="D29" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30">
+        <v>800</v>
+      </c>
+      <c r="C30" t="s">
+        <v>123</v>
+      </c>
+      <c r="D30" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31">
+        <v>1000</v>
+      </c>
+      <c r="C31" t="s">
+        <v>124</v>
+      </c>
+      <c r="D31" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0C9F5E4-6A99-4056-93DD-AE3CA711294F}">
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2">
+        <v>200</v>
+      </c>
+      <c r="C2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3">
+        <v>400</v>
+      </c>
+      <c r="C3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4">
+        <v>600</v>
+      </c>
+      <c r="C4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5">
+        <v>800</v>
+      </c>
+      <c r="C5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6">
+        <v>1000</v>
+      </c>
+      <c r="C6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7">
+        <v>200</v>
+      </c>
+      <c r="C7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8">
+        <v>400</v>
+      </c>
+      <c r="C8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9">
+        <v>600</v>
+      </c>
+      <c r="C9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10">
+        <v>800</v>
+      </c>
+      <c r="C10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11">
+        <v>1000</v>
+      </c>
+      <c r="C11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12">
+        <v>200</v>
+      </c>
+      <c r="C12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13">
+        <v>400</v>
+      </c>
+      <c r="C13" t="s">
+        <v>155</v>
+      </c>
+      <c r="D13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14">
+        <v>600</v>
+      </c>
+      <c r="C14" t="s">
+        <v>157</v>
+      </c>
+      <c r="D14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15">
+        <v>800</v>
+      </c>
+      <c r="C15" t="s">
+        <v>159</v>
+      </c>
+      <c r="D15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16">
+        <v>1000</v>
+      </c>
+      <c r="C16" t="s">
+        <v>161</v>
+      </c>
+      <c r="D16" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B17">
+        <v>200</v>
+      </c>
+      <c r="C17" t="s">
+        <v>163</v>
+      </c>
+      <c r="D17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B18">
+        <v>400</v>
+      </c>
+      <c r="C18" t="s">
+        <v>165</v>
+      </c>
+      <c r="D18" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19">
+        <v>600</v>
+      </c>
+      <c r="C19" t="s">
+        <v>167</v>
+      </c>
+      <c r="D19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20">
+        <v>800</v>
+      </c>
+      <c r="C20" t="s">
+        <v>169</v>
+      </c>
+      <c r="D20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>130</v>
+      </c>
+      <c r="B21">
+        <v>1000</v>
+      </c>
+      <c r="C21" t="s">
+        <v>171</v>
+      </c>
+      <c r="D21" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>131</v>
+      </c>
+      <c r="B22">
+        <v>200</v>
+      </c>
+      <c r="C22" t="s">
+        <v>173</v>
+      </c>
+      <c r="D22" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>131</v>
+      </c>
+      <c r="B23">
+        <v>400</v>
+      </c>
+      <c r="C23" t="s">
+        <v>175</v>
+      </c>
+      <c r="D23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>131</v>
+      </c>
+      <c r="B24">
+        <v>600</v>
+      </c>
+      <c r="C24" t="s">
+        <v>177</v>
+      </c>
+      <c r="D24" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>131</v>
+      </c>
+      <c r="B25">
+        <v>800</v>
+      </c>
+      <c r="C25" t="s">
+        <v>180</v>
+      </c>
+      <c r="D25" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>131</v>
+      </c>
+      <c r="B26">
+        <v>1000</v>
+      </c>
+      <c r="C26" t="s">
+        <v>181</v>
+      </c>
+      <c r="D26" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>184</v>
+      </c>
+      <c r="B27">
+        <v>200</v>
+      </c>
+      <c r="C27" t="s">
+        <v>183</v>
+      </c>
+      <c r="D27" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>184</v>
+      </c>
+      <c r="B28">
+        <v>400</v>
+      </c>
+      <c r="C28" t="s">
+        <v>185</v>
+      </c>
+      <c r="D28" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>184</v>
+      </c>
+      <c r="B29">
+        <v>600</v>
+      </c>
+      <c r="C29" t="s">
+        <v>188</v>
+      </c>
+      <c r="D29" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>184</v>
+      </c>
+      <c r="B30">
+        <v>800</v>
+      </c>
+      <c r="C30" t="s">
+        <v>190</v>
+      </c>
+      <c r="D30" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>184</v>
+      </c>
+      <c r="B31">
+        <v>1000</v>
+      </c>
+      <c r="C31" t="s">
+        <v>192</v>
+      </c>
+      <c r="D31" t="s">
+        <v>193</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
